--- a/ConnectorDescriptor_test_plan.xlsx
+++ b/ConnectorDescriptor_test_plan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\AssemblyConnector\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000"/>
+    <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="3" r:id="rId1"/>
@@ -19,8 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$22</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>Requirements</t>
   </si>
@@ -656,9 +651,6 @@
     </r>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Check that the tool makes the differnce when dealing with Pports from &lt;AswcDiagForDcm&gt;</t>
   </si>
   <si>
@@ -688,20 +680,17 @@
     <t>- check that the connector is created between the Pport and the Rport</t>
   </si>
   <si>
-    <t>not done</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>4/18/2018</t>
+  </si>
+  <si>
+    <t>CHECK.ARXML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,28 +1431,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>49</v>
       </c>
@@ -1477,7 +1466,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -1491,12 +1480,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>67</v>
@@ -1505,91 +1494,91 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -1602,17 +1591,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
@@ -1622,7 +1611,7 @@
     <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" thickTop="1">
       <c r="A2" s="30" t="s">
         <v>53</v>
       </c>
@@ -1662,7 +1651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="30" t="s">
         <v>54</v>
       </c>
@@ -1680,7 +1669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="30" t="s">
         <v>55</v>
       </c>
@@ -1698,7 +1687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
@@ -1718,7 +1707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="41"/>
       <c r="B6" s="40"/>
       <c r="C6" s="23" t="s">
@@ -1734,7 +1723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="41" t="s">
         <v>57</v>
       </c>
@@ -1754,7 +1743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="41"/>
       <c r="B8" s="40"/>
       <c r="C8" s="23" t="s">
@@ -1770,7 +1759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="30" t="s">
         <v>58</v>
       </c>
@@ -1790,7 +1779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="30" t="s">
         <v>59</v>
       </c>
@@ -1810,7 +1799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="30" t="s">
         <v>60</v>
       </c>
@@ -1830,12 +1819,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="41" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>23</v>
@@ -1850,7 +1839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="41"/>
       <c r="B13" s="40"/>
       <c r="C13" s="23" t="s">
@@ -1866,7 +1855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="60">
       <c r="A14" s="41" t="s">
         <v>77</v>
       </c>
@@ -1874,35 +1863,35 @@
         <v>82</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>90</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="23" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="30" t="s">
         <v>78</v>
       </c>
@@ -1913,16 +1902,16 @@
         <v>85</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="30" t="s">
         <v>79</v>
       </c>
@@ -1942,7 +1931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="30" t="s">
         <v>62</v>
       </c>
@@ -1962,7 +1951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="30">
       <c r="A19" s="30" t="s">
         <v>63</v>
       </c>
@@ -1982,7 +1971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="60">
       <c r="A20" s="41" t="s">
         <v>74</v>
       </c>
@@ -2002,7 +1991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60">
       <c r="A21" s="41"/>
       <c r="B21" s="40"/>
       <c r="C21" s="23" t="s">
@@ -2018,7 +2007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45">
       <c r="A22" s="41" t="s">
         <v>75</v>
       </c>
@@ -2038,7 +2027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="45">
       <c r="A23" s="41"/>
       <c r="B23" s="40"/>
       <c r="C23" s="23" t="s">
@@ -2054,7 +2043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="45">
       <c r="A24" s="41"/>
       <c r="B24" s="40"/>
       <c r="C24" s="23" t="s">
@@ -2070,7 +2059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="30" t="s">
         <v>62</v>
       </c>
@@ -2088,9 +2077,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30.75" thickBot="1">
       <c r="A26" s="36" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B26" s="37" t="s">
         <v>70</v>

--- a/ConnectorDescriptor_test_plan.xlsx
+++ b/ConnectorDescriptor_test_plan.xlsx
@@ -992,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1096,7 +1096,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,7 +1443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1595,10 +1607,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1688,10 +1700,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -1708,8 +1720,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="41"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="23" t="s">
         <v>46</v>
       </c>
@@ -1724,10 +1736,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -1744,8 +1756,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="41"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="23" t="s">
         <v>44</v>
       </c>
@@ -1760,10 +1772,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="46" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -1780,10 +1792,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -1800,10 +1812,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="45">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -1820,10 +1832,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="45" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -1840,8 +1852,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
-      <c r="A13" s="41"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
@@ -1856,10 +1868,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="60">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="44" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -1876,8 +1888,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="60">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="23" t="s">
         <v>86</v>
       </c>
@@ -1895,7 +1907,7 @@
       <c r="A16" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="40" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -1972,10 +1984,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="60">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -1992,8 +2004,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="41"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="23" t="s">
         <v>16</v>
       </c>
@@ -2008,10 +2020,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="42" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="23" t="s">
@@ -2028,8 +2040,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="41"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="23" t="s">
         <v>12</v>
       </c>
@@ -2044,8 +2056,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="41"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="23" t="s">
         <v>13</v>
       </c>

--- a/ConnectorDescriptor_test_plan.xlsx
+++ b/ConnectorDescriptor_test_plan.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$23</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>Requirements</t>
   </si>
@@ -684,6 +684,79 @@
   </si>
   <si>
     <t>CHECK.ARXML</t>
+  </si>
+  <si>
+    <t>- check that the error isn't present in the log file</t>
+  </si>
+  <si>
+    <t>- check the log for the corresponding error</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool  one Rport  referencing  one interface of type CLIENT-SERVER-INTERFACE, one file which contains two Pports referencing the same interface as the Rport and having the same short-name, and one 'xml' file which contains the same Cores and Partitions allocation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool  one Rport  referencing  one interface of type CLIENT-SERVER-INTERFACE, one file which contains two Pports referencing the same interface as the Rport and having the same short-name, and one 'xml' file which contains different Cores and Partitions allocation</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the tool behavior for each case when there are different COREs/PARTITIONs or they're not different</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feed to the tool an input file which contains two Pport referencing the same interface and having different short-names (eg: SR_name and 123_name), and one Rport referencing the same interface referenced by the Pport</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that a connector is created in the output file for both Pports.</t>
   </si>
 </sst>
 </file>
@@ -715,7 +788,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -724,21 +797,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
         <color indexed="64"/>
@@ -763,10 +821,288 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dotted">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -776,213 +1112,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -992,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1005,116 +1167,143 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1152,6 +1341,96 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1443,7 +1722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1459,142 +1738,142 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="10" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1604,520 +1883,571 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="17" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="43"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="43"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
-      <c r="A13" s="43"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="23" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" ht="30">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="60">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="43"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="23" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B23" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D23" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="43"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="23" t="s">
+      <c r="E23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45">
+      <c r="A24" s="48"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D24" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="43"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="23" t="s">
+      <c r="E24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="48"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D25" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="30" t="s">
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60">
+      <c r="A26" s="48"/>
+      <c r="B26" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60">
+      <c r="A27" s="45"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D28" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A26" s="36" t="s">
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A29" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B29" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C29" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D29" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E29" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="55" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E22"/>
-  <mergeCells count="12">
+  <autoFilter ref="A1:E23"/>
+  <mergeCells count="13">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B7:B8"/>
@@ -2133,17 +2463,17 @@
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F25">
+  <conditionalFormatting sqref="F28 F2:F25">
     <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F26">
+  <conditionalFormatting sqref="F2:F29">
     <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="F29 F26:F27">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -2152,13 +2482,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F27 F29">
       <formula1>"YES, NO, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28 F2:F25">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ConnectorDescriptor_test_plan.xlsx
+++ b/ConnectorDescriptor_test_plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\AssemblyConnector\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="5940" windowWidth="19260" windowHeight="6000" activeTab="1"/>
   </bookViews>
@@ -13,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$E$23</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
   <si>
     <t>Requirements</t>
   </si>
@@ -216,6 +221,18 @@
     <t>- check that the connector is created between the Rport and the Pport who is referencing the &lt;AswcDiagForDcm&gt;</t>
   </si>
   <si>
+    <t>- check that one connector is created, between the Pport and the Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool will not generate an existing connector</t>
+  </si>
+  <si>
+    <t>- check that no connector is created between the Rport and the Pport</t>
+  </si>
+  <si>
+    <t>Check that for unique Pport and Rport, only one connector will be created</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -235,8 +252,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Rport referencing an ASWC_Data and two Pport, one of the Pport referencing &lt;AswcDiagForDcm&gt;, while the other one is referencing another ASWC</t>
-    </r>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, one Rport referencing the same interface as the Pport, and one connector which already contains the link between the given ports</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that only one connector is created between the given ports</t>
+  </si>
+  <si>
+    <t>Check that the tool will not discriminate between Pports and PRPorts</t>
   </si>
   <si>
     <r>
@@ -248,24 +271,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Rport referencing an ASWC_Data, and one Pport referencing the same interface as the Rport, but from &lt;AswcDiagForDcm&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Check that the tool generate the correct connectors when having multiple Rports with the same name and referencing the same interface </t>
-  </si>
-  <si>
-    <t>Check that the tool generate the correct connectors when Pport and Rport references the same interface</t>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that one connector is created between the PRPort and the Rport</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - check in the log that all the input .arxml files are parsed</t>
   </si>
   <si>
     <r>
@@ -287,151 +313,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and two Rports with the same short-name as the Pport and  referencing the same interface as the Pport</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and  one Rport with a different short-name as of Pport, but referencing the same interface as the PPort</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that two connectors are created, one for each Rport</t>
-  </si>
-  <si>
-    <t>- check that one connector is created, between the Pport and the Rport</t>
-  </si>
-  <si>
-    <t>Check that the tool will not generate an existing connector</t>
-  </si>
-  <si>
-    <t>- check that no connector is created between the Rport and the Pport</t>
-  </si>
-  <si>
-    <t>Check that for unique Pport and Rport, only one connector will be created</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Pport referencing one interface of type Client-Server, one Rport referencing the same interface as the Pport, and one connector which already contains the link between the given ports</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that only one connector is created between the given ports</t>
-  </si>
-  <si>
-    <t>Check that the tool will not discriminate between Pports and PRPorts</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that one connector is created between the PRPort and the Rport</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - check in the log that all the input .arxml files are parsed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>: provide to the tool several .arxml  files as an input argument</t>
     </r>
   </si>
@@ -439,53 +320,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Port referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
-    </r>
-  </si>
-  <si>
     <t>-check that the output file does not contains multiple times the same connector</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the samei Client-Server interface</t>
-    </r>
   </si>
   <si>
     <t>Implemented</t>
@@ -531,9 +366,6 @@
     <t>TRS.CONNECTOR.FUNC.0006</t>
   </si>
   <si>
-    <t>TRS.CONNECTOR.FUNC.0009</t>
-  </si>
-  <si>
     <t>TRS.CONNECTOR.GEN.001</t>
   </si>
   <si>
@@ -584,12 +416,6 @@
     <t>TRS.CONNECTOR.FUNC.010</t>
   </si>
   <si>
-    <t>TRS.CONNECTOR.FUNC.011</t>
-  </si>
-  <si>
-    <t>TRS.CONNECTOR.FUNC.012</t>
-  </si>
-  <si>
     <t>Covered by TRS.CONNECTOR.CHECK.003 and TRS.CONNECTOR.CHECK.004</t>
   </si>
   <si>
@@ -605,6 +431,48 @@
     <t>Check that the tool does not generate the output file in case of any error present</t>
   </si>
   <si>
+    <t>- check that the connector is created between the Pport and the Rport</t>
+  </si>
+  <si>
+    <t>4/18/2018</t>
+  </si>
+  <si>
+    <t>CHECK.ARXML</t>
+  </si>
+  <si>
+    <t>- check that the error isn't present in the log file</t>
+  </si>
+  <si>
+    <t>- check the log for the corresponding error</t>
+  </si>
+  <si>
+    <t>Check the tool behavior for each case when there are different COREs/PARTITIONs or they're not different</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feed to the tool an input file which contains two Pport referencing the same interface and having different short-names (eg: SR_name and 123_name), and one Rport referencing the same interface referenced by the Pport</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that a connector is created in the output file for both Pports.</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.CHECK.001</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.CHECK.002</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -614,6 +482,113 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool  one Rport  referencing  one interface of type CLIENT-SERVER-INTERFACE, one file which contains two Pports referencing the same interface as the Rport and having the same short-name, and one 'xml' file which contains the same Cores and Partitions allocation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool  one Rport  referencing  one interface of type CLIENT-SERVER-INTERFACE, one file which contains two Pports referencing the same interface as the Rport and having the same short-name, and one 'xml' file which contains different Cores and Partitions allocation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one PRPort referencing one interface of type Client-Server, and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one PPort referencing one interface of type Client-Server and one Rport referencing the same Client-Server interface</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.007</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.008</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.FUNC.009</t>
+  </si>
+  <si>
+    <t>TRS.CONNECTOR.GEN.003</t>
+  </si>
+  <si>
+    <t>Check that the tool generate the correct connectors when an unique Pport and an unique Rport references the same interface</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 1</t>
     </r>
     <r>
@@ -624,6 +599,109 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>: feed to the tool one PPort referencing one interface of type Client-Server, and  one RPort with a different short-name as of PPort, but referencing the same interface as the PPort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Pport referencing one interface of type Client-Server, and two RPorts with different names as the PPort and  referencing the same interface as the Rports, and having the same names</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that two connectors are created, for each pair of (Pport, RPort) with the same name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the tool generate the correct connectors when having multiple Rports and Pports with the same name and referencing the same interface </t>
+  </si>
+  <si>
+    <t>Check that the tool makes the differnce when dealing with Pports from &lt;Aswc_IntDcm&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Rport referencing an ASWC_Data and two Pport, one of the Pport referencing &lt;Aswc_IntDcm&gt;, while the other one is referencing another ASWC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Rport referencing an ASWC_Data, and one Pport referencing the same interface as the Rport, but from &lt;Aswc_IntDcm&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>: feed to the tool one Rport referencing a MODE-SWITHC-INTERFACE and one Pport referencing the same interface, but where the SHORT-NAME has not any of the above forms</t>
     </r>
   </si>
@@ -637,6 +715,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: feed to the tool one Rport referencing a MODE-SWITCH-INTERFACE and one Pport referencing the same interface, where the SHORT-NAME of the Pport being of form </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswM_ModeSwitchPort_&lt;OS_APP_NAME_BSWM&gt;_Switch_Rte_&lt;CORE&gt;_&lt;PARTITION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where the CORE and PARTITION are the same with the ones used by the RPort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 2</t>
     </r>
     <r>
@@ -647,13 +769,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Rport referencing a MODE-SWITCH-INTERFACE and one Pport referencing the same interface, where the SHORT-NAME of the Pport being of form OsApp_&lt;CORE&gt;_&lt;PARTITION&gt;_BswMSwitchLocalPort , where the CORE and PARTITION are the same with the ones used by the RPort</t>
-    </r>
-  </si>
-  <si>
-    <t>Check that the tool makes the differnce when dealing with Pports from &lt;AswcDiagForDcm&gt;</t>
-  </si>
-  <si>
+      <t xml:space="preserve">: feed to the tool one Rport referencing a MODE-SWITCH-INTERFACE and one Pport referencing the same interface, where the SHORT-NAME of the Pport being of form </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -663,6 +780,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>BswM_ModeSwitchPort_&lt;OS_APP_NAME_BSWM&gt;_Switch_Rte_&lt;CORE&gt;_&lt;PARTITION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where the CORE and PARTITION are not the same with the ones used by the RPort</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that no connection is created between the Pport and the Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool correctly evaluates the SHORT-NAME of an port</t>
+  </si>
+  <si>
+    <t>- check that the connector is created between the two given ports</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 1</t>
     </r>
     <r>
@@ -673,97 +822,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Rport referencing a MODE-SWITCH-INTERFACE and one Pport referencing the same interface, where the SHORT-NAME of the Pport being of form OsApp_&lt;CORE&gt;_&lt;PARTITION&gt;_AppSwitchLocalPort , where the CORE and PARTITION are the same with the ones used by the RPort</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that the connector is created between the Pport and the Rport</t>
-  </si>
-  <si>
-    <t>4/18/2018</t>
-  </si>
-  <si>
-    <t>CHECK.ARXML</t>
-  </si>
-  <si>
-    <t>- check that the error isn't present in the log file</t>
-  </si>
-  <si>
-    <t>- check the log for the corresponding error</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 4:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Provide to the tool  one Rport  referencing  one interface of type CLIENT-SERVER-INTERFACE, one file which contains two Pports referencing the same interface as the Rport and having the same short-name, and one 'xml' file which contains the same Cores and Partitions allocation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Provide to the tool  one Rport  referencing  one interface of type CLIENT-SERVER-INTERFACE, one file which contains two Pports referencing the same interface as the Rport and having the same short-name, and one 'xml' file which contains different Cores and Partitions allocation</t>
-    </r>
-  </si>
-  <si>
-    <t>Check the tool behavior for each case when there are different COREs/PARTITIONs or they're not different</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test 3: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>feed to the tool an input file which contains two Pport referencing the same interface and having different short-names (eg: SR_name and 123_name), and one Rport referencing the same interface referenced by the Pport</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that a connector is created in the output file for both Pports.</t>
+      <t>: provide to the tool one Rport referencing an interface which has the name of format &lt;RP_xyz&gt;, and one Pport referencing the same interface which has the format &lt;xyz&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +840,49 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1154,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1245,6 +1355,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1257,73 +1412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1386,6 +1497,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1416,21 +1537,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1722,154 +1863,154 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1882,17 +2023,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
@@ -1902,7 +2043,7 @@
     <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1915,210 +2056,210 @@
       <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" thickTop="1">
+      <c r="E1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="20" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>37</v>
+      <c r="F4" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="39"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="39"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
+      <c r="F8" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>26</v>
+      <c r="F9" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45">
-      <c r="A11" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>25</v>
+      <c r="F10" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>87</v>
+      <c r="F11" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>95</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>21</v>
@@ -2126,15 +2267,15 @@
       <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
+      <c r="F12" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="19" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>22</v>
@@ -2142,89 +2283,89 @@
       <c r="E13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60">
-      <c r="A14" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>82</v>
+      <c r="F13" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
-      <c r="A16" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>89</v>
+      <c r="B16" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>72</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
+      <c r="F16" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30">
+      <c r="F17" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>4</v>
@@ -2238,13 +2379,13 @@
       <c r="E18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="30">
+      <c r="F18" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>8</v>
@@ -2258,15 +2399,15 @@
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60">
-      <c r="A20" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="40" t="s">
+      <c r="F19" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -2278,13 +2419,13 @@
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
+      <c r="F20" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="19" t="s">
         <v>16</v>
       </c>
@@ -2294,155 +2435,176 @@
       <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="53" t="s">
-        <v>97</v>
+      <c r="F21" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="40" t="s">
+      <c r="F22" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="55" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45">
-      <c r="A24" s="48"/>
-      <c r="B24" s="40"/>
+      <c r="F23" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45">
-      <c r="A25" s="48"/>
-      <c r="B25" s="40"/>
+      <c r="F24" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60">
-      <c r="A26" s="48"/>
-      <c r="B26" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60">
-      <c r="A27" s="45"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>92</v>
+      <c r="F25" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A29" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>40</v>
+      <c r="F27" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E23"/>
-  <mergeCells count="13">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A23:A27"/>
+  <mergeCells count="14">
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B23:B25"/>
@@ -2454,41 +2616,43 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28 F2:F25">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+  <conditionalFormatting sqref="F29 F2:F26">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F29">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+  <conditionalFormatting sqref="F2:F30">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29 F26:F27">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="F30 F27:F28">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F27 F29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:F28 F30">
       <formula1>"YES, NO, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
       <formula1>"done, not done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28 F2:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29 F2:F26">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ConnectorDescriptor_test_plan.xlsx
+++ b/ConnectorDescriptor_test_plan.xlsx
@@ -822,7 +822,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: provide to the tool one Rport referencing an interface which has the name of format &lt;RP_xyz&gt;, and one Pport referencing the same interface which has the format &lt;xyz&gt;</t>
+      <t>: provide to the tool one Rport referencing an interface which has the name of format &lt;RP_xyz&gt;, and one Pport referencing the same interface which has the format &lt;MPRP_xyz&gt;</t>
     </r>
   </si>
 </sst>
@@ -830,7 +830,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,13 +840,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1386,65 +1379,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1457,21 +1440,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1492,86 +1465,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2027,10 +1920,10 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,10 +2013,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="56" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -2140,8 +2033,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="19" t="s">
         <v>84</v>
       </c>
@@ -2156,10 +2049,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -2176,8 +2069,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="19" t="s">
         <v>85</v>
       </c>
@@ -2215,7 +2108,7 @@
       <c r="A10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2235,7 +2128,7 @@
       <c r="A11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="49" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2252,10 +2145,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="56" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2272,8 +2165,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="19" t="s">
         <v>97</v>
       </c>
@@ -2288,10 +2181,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="59" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2308,8 +2201,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="20" t="s">
         <v>100</v>
       </c>
@@ -2324,16 +2217,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="51" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2404,10 +2297,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -2424,8 +2317,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="19" t="s">
         <v>16</v>
       </c>
@@ -2440,8 +2333,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="45" t="s">
         <v>78</v>
       </c>
@@ -2456,10 +2349,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -2476,8 +2369,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="19" t="s">
         <v>12</v>
       </c>
@@ -2492,8 +2385,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="19" t="s">
         <v>13</v>
       </c>
@@ -2511,7 +2404,7 @@
       <c r="A26" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -2528,10 +2421,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="54" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -2548,8 +2441,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="39" t="s">
         <v>83</v>
       </c>
@@ -2620,28 +2513,28 @@
     <mergeCell ref="A23:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29 F2:F26">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30 F27:F28">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConnectorDescriptor_test_plan.xlsx
+++ b/ConnectorDescriptor_test_plan.xlsx
@@ -638,6 +638,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -648,13 +649,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: feed to the tool one Rport referencing an ASWC_Data and two Pport, one of the Pport referencing &lt;Aswc_IntDcm&gt;, while the other one is referencing another ASWC</t>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Rport referencing a MODE-SWITHC-INTERFACE and one Pport referencing the same interface, but where the SHORT-NAME has not any of the above forms</t>
     </r>
   </si>
   <si>
@@ -667,6 +669,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: feed to the tool one Rport referencing a MODE-SWITCH-INTERFACE and one Pport referencing the same interface, where the SHORT-NAME of the Pport being of form </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswM_ModeSwitchPort_&lt;OS_APP_NAME_BSWM&gt;_Switch_Rte_&lt;CORE&gt;_&lt;PARTITION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where the CORE and PARTITION are the same with the ones used by the RPort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test 2</t>
     </r>
     <r>
@@ -677,7 +723,60 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Rport referencing an ASWC_Data, and one Pport referencing the same interface as the Rport, but from &lt;Aswc_IntDcm&gt;</t>
+      <t xml:space="preserve">: feed to the tool one Rport referencing a MODE-SWITCH-INTERFACE and one Pport referencing the same interface, where the SHORT-NAME of the Pport being of form </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BswM_ModeSwitchPort_&lt;OS_APP_NAME_BSWM&gt;_Switch_Rte_&lt;CORE&gt;_&lt;PARTITION&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where the CORE and PARTITION are not the same with the ones used by the RPort</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that no connection is created between the Pport and the Rport</t>
+  </si>
+  <si>
+    <t>Check that the tool correctly evaluates the SHORT-NAME of an port</t>
+  </si>
+  <si>
+    <t>- check that the connector is created between the two given ports</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: provide to the tool one Rport referencing an interface which has the name of format &lt;RP_xyz&gt;, and one Pport referencing the same interface which has the format &lt;MPRP_xyz&gt;</t>
     </r>
   </si>
   <si>
@@ -702,57 +801,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: feed to the tool one Rport referencing a MODE-SWITHC-INTERFACE and one Pport referencing the same interface, but where the SHORT-NAME has not any of the above forms</t>
+      <t>: feed to the tool one Rport referencing an ASWC_Data and two Pport, one of the Pport referencing &lt;Aswc_IntDcm&gt;, while the other one is referencing another ASWC</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: feed to the tool one Rport referencing a MODE-SWITCH-INTERFACE and one Pport referencing the same interface, where the SHORT-NAME of the Pport being of form </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BswM_ModeSwitchPort_&lt;OS_APP_NAME_BSWM&gt;_Switch_Rte_&lt;CORE&gt;_&lt;PARTITION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, where the CORE and PARTITION are the same with the ones used by the RPort</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <strike/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -763,66 +819,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: feed to the tool one Rport referencing a MODE-SWITCH-INTERFACE and one Pport referencing the same interface, where the SHORT-NAME of the Pport being of form </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BswM_ModeSwitchPort_&lt;OS_APP_NAME_BSWM&gt;_Switch_Rte_&lt;CORE&gt;_&lt;PARTITION&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, where the CORE and PARTITION are not the same with the ones used by the RPort</t>
-    </r>
-  </si>
-  <si>
-    <t>- check that no connection is created between the Pport and the Rport</t>
-  </si>
-  <si>
-    <t>Check that the tool correctly evaluates the SHORT-NAME of an port</t>
-  </si>
-  <si>
-    <t>- check that the connector is created between the two given ports</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: provide to the tool one Rport referencing an interface which has the name of format &lt;RP_xyz&gt;, and one Pport referencing the same interface which has the format &lt;MPRP_xyz&gt;</t>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: feed to the tool one Rport referencing an ASWC_Data, and one Pport referencing the same interface as the Rport, but from &lt;Aswc_IntDcm&gt;</t>
     </r>
   </si>
 </sst>
@@ -1257,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1422,6 +1426,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1920,10 +1930,10 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,16 +2155,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2165,12 +2175,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2188,7 +2198,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>72</v>
@@ -2204,10 +2214,10 @@
       <c r="A15" s="57"/>
       <c r="B15" s="59"/>
       <c r="C15" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>6</v>
@@ -2224,7 +2234,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>72</v>
@@ -2405,13 +2415,13 @@
         <v>63</v>
       </c>
       <c r="B26" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="D26" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>6</v>

--- a/ConnectorDescriptor_test_plan.xlsx
+++ b/ConnectorDescriptor_test_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PycharmProjects\AssemblyConnector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristi\PyCharmProjects\AssemblyConnector\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
   <si>
     <t>Requirements</t>
   </si>
@@ -828,6 +828,53 @@
       </rPr>
       <t>: feed to the tool one Rport referencing an ASWC_Data, and one Pport referencing the same interface as the Rport, but from &lt;Aswc_IntDcm&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>CHECK.CSI.DOUBLE.PPORT</t>
+  </si>
+  <si>
+    <t>Check that the tool will generate and error when multiple Pports of interface type CSI has the same interface and the same software allocation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide to the tool two Pports of type CSI that references the same CSI interface and have the same sotware allocation without a valid Rport</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provide to the tool two Pports of type CSI that references the same CSI interface and have the same software allocation, and one Rport of the same interface and software allocation that has as ASWC the module Dcm</t>
+    </r>
+  </si>
+  <si>
+    <t>- check that the connector is created between the given ports</t>
   </si>
 </sst>
 </file>
@@ -895,7 +942,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1087,21 +1134,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1257,11 +1289,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1331,16 +1389,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1361,28 +1413,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,7 +1452,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1415,29 +1473,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1927,13 +2188,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,18 +2220,18 @@
       <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -1982,15 +2243,15 @@
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
@@ -2000,15 +2261,15 @@
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="20" t="s">
         <v>65</v>
       </c>
@@ -2018,7 +2279,7 @@
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2038,7 +2299,7 @@
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2054,7 +2315,7 @@
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2074,7 +2335,7 @@
       <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2090,15 +2351,15 @@
       <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -2110,15 +2371,15 @@
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2130,15 +2391,15 @@
       <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2150,43 +2411,43 @@
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="50" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="49" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2194,7 +2455,7 @@
       <c r="A14" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="61" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2206,13 +2467,13 @@
       <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
-      <c r="B15" s="59"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="20" t="s">
         <v>98</v>
       </c>
@@ -2222,35 +2483,35 @@
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="49" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2262,15 +2523,15 @@
       <c r="E17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="20" t="s">
@@ -2282,12 +2543,12 @@
       <c r="E18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -2302,7 +2563,7 @@
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2322,7 +2583,7 @@
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="42" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2338,14 +2599,14 @@
       <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="58"/>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="27" t="s">
@@ -2354,12 +2615,12 @@
       <c r="E22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="62" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="58" t="s">
@@ -2374,12 +2635,12 @@
       <c r="E23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="58"/>
       <c r="C24" s="19" t="s">
         <v>12</v>
@@ -2390,12 +2651,12 @@
       <c r="E24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="58"/>
       <c r="C25" s="19" t="s">
         <v>13</v>
@@ -2406,15 +2667,15 @@
       <c r="E25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -2426,51 +2687,51 @@
       <c r="E26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="42" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="62" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="38" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="55"/>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="38" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="19" t="s">
         <v>67</v>
       </c>
@@ -2480,33 +2741,79 @@
       <c r="E29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="F29" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>32</v>
-      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E23"/>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
@@ -2522,37 +2829,94 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A23:A25"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+  <conditionalFormatting sqref="E1:E29 E34:E1048576">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>"not done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29 F2:F26">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+  <conditionalFormatting sqref="F2:F29">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30 F27:F28">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="F27:F28">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"not done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F33">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"not done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"not done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:F28 F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:F28 F30:F33">
       <formula1>"YES, NO, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33">
       <formula1>"done, not done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29 F2:F26">
